--- a/Notes/tables.xlsx
+++ b/Notes/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7NS1_ScalableComputing\Projects\Project3\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE8152E-484D-4738-8CE2-62215B64C39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2035D-1A09-489D-9435-4FFC6795ED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Data</t>
   </si>
@@ -119,6 +119,15 @@
       </rPr>
       <t>[publisher ID, key locator, stale time, etc.]</t>
     </r>
+  </si>
+  <si>
+    <t>(x, y)</t>
+  </si>
+  <si>
+    <t>IP &amp; Port</t>
+  </si>
+  <si>
+    <t>NDN IP</t>
   </si>
 </sst>
 </file>
@@ -158,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +225,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -276,6 +297,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -285,8 +309,14 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,7 +642,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="13"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -624,10 +654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A309F03-2FA2-425B-BA64-EBFFCDDE7325}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -637,21 +667,25 @@
     <col min="5" max="6" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -670,8 +704,14 @@
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -690,12 +730,19 @@
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes/tables.xlsx
+++ b/Notes/tables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7NS1_ScalableComputing\Projects\Project3\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2035D-1A09-489D-9435-4FFC6795ED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDE6483-C147-46E4-B8ED-08EDE5A1866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="package_structure" sheetId="3" r:id="rId1"/>
-    <sheet name="router_structure" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="router_structure" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Data</t>
   </si>
@@ -59,18 +60,6 @@
   </si>
   <si>
     <t>Outgoing Interface</t>
-  </si>
-  <si>
-    <t>[...]</t>
-  </si>
-  <si>
-    <t>"…"</t>
-  </si>
-  <si>
-    <t>{…}</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <r>
@@ -121,20 +110,52 @@
     </r>
   </si>
   <si>
-    <t>(x, y)</t>
-  </si>
-  <si>
-    <t>IP &amp; Port</t>
-  </si>
-  <si>
-    <t>NDN IP</t>
+    <t>[{"name":cost}, …]</t>
+  </si>
+  <si>
+    <t>"content name"</t>
+  </si>
+  <si>
+    <t>["node name", ...]</t>
+  </si>
+  <si>
+    <t>"node name"</t>
+  </si>
+  <si>
+    <t>"content store"</t>
+  </si>
+  <si>
+    <t>{data}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Neighbors
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(NDN - IP)</t>
+    </r>
+  </si>
+  <si>
+    <t>[Host, Port, Marker]</t>
+  </si>
+  <si>
+    <t>Host, Port, Marker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +187,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -268,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -300,23 +329,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B96E90-A4CB-4DDB-8982-FC605D4761FD}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -627,10 +659,10 @@
     </row>
     <row r="3" spans="1:2" ht="47.6" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
@@ -638,12 +670,34 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -653,37 +707,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FD77AC-319F-46E4-9F07-19243B5B17E5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A309F03-2FA2-425B-BA64-EBFFCDDE7325}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="9.23046875" style="1"/>
     <col min="4" max="4" width="9.23046875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.23046875" style="1"/>
+    <col min="5" max="5" width="9.23046875" style="1"/>
+    <col min="6" max="6" width="11.07421875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.23046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -704,37 +772,37 @@
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>18</v>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -745,5 +813,6 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Notes/tables.xlsx
+++ b/Notes/tables.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7NS1_ScalableComputing\Projects\Project3\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDE6483-C147-46E4-B8ED-08EDE5A1866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEF70B6-570F-4355-889B-A8805F2DFB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="package_structure" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="router_structure" sheetId="2" r:id="rId3"/>
+    <sheet name="router_structure" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Data</t>
   </si>
@@ -78,38 +77,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Signature </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[digest algorithm, witness, etc.]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Signed Information </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[publisher ID, key locator, stale time, etc.]</t>
-    </r>
-  </si>
-  <si>
     <t>[{"name":cost}, …]</t>
   </si>
   <si>
@@ -120,9 +87,6 @@
   </si>
   <si>
     <t>"node name"</t>
-  </si>
-  <si>
-    <t>"content store"</t>
   </si>
   <si>
     <t>{data}</t>
@@ -150,12 +114,70 @@
   <si>
     <t>Host, Port, Marker</t>
   </si>
+  <si>
+    <r>
+      <t>Guiders</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [score, interest lifetime etc.]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sigature </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[publisher ID, key locator, stale time, digest algorithm, etc.]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Metadata </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[content type, freshness period, etc.]</t>
+    </r>
+  </si>
+  <si>
+    <t>content name</t>
+  </si>
+  <si>
+    <t>interest
+content name</t>
+  </si>
+  <si>
+    <t>[face1, face2, ...]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +217,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -335,6 +371,12 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -345,9 +387,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,13 +671,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B96E90-A4CB-4DDB-8982-FC605D4761FD}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="152" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="20.69140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="25.53515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -662,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
@@ -670,11 +709,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -703,27 +744,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FD77AC-319F-46E4-9F07-19243B5B17E5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A309F03-2FA2-425B-BA64-EBFFCDDE7325}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A309F03-2FA2-425B-BA64-EBFFCDDE7325}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -733,27 +763,44 @@
     <col min="5" max="5" width="9.23046875" style="1"/>
     <col min="6" max="6" width="11.07421875" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.23046875" customWidth="1"/>
+    <col min="10" max="11" width="12.4609375" customWidth="1"/>
+    <col min="12" max="12" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.61328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" ht="31.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="F1" s="17"/>
+      <c r="G1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="J1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:15" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -775,38 +822,77 @@
       <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>

--- a/Notes/tables.xlsx
+++ b/Notes/tables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7NS1_ScalableComputing\Projects\Project3\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEF70B6-570F-4355-889B-A8805F2DFB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63742847-31F5-4642-95E5-008D9FFBFC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="package_structure" sheetId="3" r:id="rId1"/>
     <sheet name="router_structure" sheetId="2" r:id="rId2"/>
+    <sheet name="Bots" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -92,23 +93,6 @@
     <t>{data}</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Neighbors
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(NDN - IP)</t>
-    </r>
-  </si>
-  <si>
     <t>[Host, Port, Marker]</t>
   </si>
   <si>
@@ -172,12 +156,15 @@
   <si>
     <t>[face1, face2, ...]</t>
   </si>
+  <si>
+    <t>Neighbors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +192,6 @@
       <i/>
       <sz val="12"/>
       <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -701,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
@@ -709,12 +688,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>0</v>
@@ -752,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A309F03-2FA2-425B-BA64-EBFFCDDE7325}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -784,7 +763,7 @@
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1" s="18"/>
       <c r="J1" s="15" t="s">
@@ -823,7 +802,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>8</v>
@@ -867,25 +846,25 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -901,4 +880,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508FA623-8E1A-4393-B315-1613BFF895D0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>